--- a/data/trans_camb/P11_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.896014099067617</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>11.94646223768717</v>
+        <v>11.94646223768718</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-6.066676976708118</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.91913284596327</v>
+        <v>-12.45557133506833</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.244844236149953</v>
+        <v>-9.572310964067182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.041160031072214</v>
+        <v>5.421340220305584</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.084151062547741</v>
+        <v>-6.799938972665354</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.817780394313793</v>
+        <v>-6.107592055730506</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.783620995227841</v>
+        <v>7.377820200943798</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-8.998792784441809</v>
+        <v>-9.188846432449866</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.297849383930598</v>
+        <v>-6.781355418451705</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.131844408510927</v>
+        <v>7.416343645768168</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.407749362243668</v>
+        <v>-3.60906782449644</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.4923270050823729</v>
+        <v>-0.4554799013442631</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.94699026619333</v>
+        <v>17.47736720208758</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.3461849891541</v>
+        <v>1.719646376135216</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.470647598230197</v>
+        <v>2.390030797862693</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.97593760941089</v>
+        <v>17.09974290489114</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-2.82732582466718</v>
+        <v>-2.935048160644013</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.7045261496989667</v>
+        <v>-0.6216040070999822</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.6960964359504</v>
+        <v>14.94643029480376</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1647309604692583</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3976506046321872</v>
+        <v>0.3976506046321874</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.07207548364983073</v>
@@ -760,7 +760,7 @@
         <v>-0.05135620682655108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3235867211250968</v>
+        <v>0.3235867211250972</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1805023086294285</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4060970867953775</v>
+        <v>-0.4031081372109938</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2941670467999926</v>
+        <v>-0.3047674457354473</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1553920940752805</v>
+        <v>0.1770301308322997</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1812698155112347</v>
+        <v>-0.1741146692654184</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1482983043283757</v>
+        <v>-0.1537179090157316</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1729748113909842</v>
+        <v>0.1838887477098559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2549012573696851</v>
+        <v>-0.2586044769388164</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2031215505731047</v>
+        <v>-0.1936604376225084</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2021446619785465</v>
+        <v>0.2094854851506046</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1258231771029791</v>
+        <v>-0.1419465623417418</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.01925357770032057</v>
+        <v>-0.01694848211158715</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6521640973536201</v>
+        <v>0.6904203322287391</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.03915698881205578</v>
+        <v>0.04846489889213643</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07173672685831133</v>
+        <v>0.06928819127205871</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4949528347743336</v>
+        <v>0.5003147292510843</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.09142130271685588</v>
+        <v>-0.08772143308409985</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.02225257571055238</v>
+        <v>-0.02089951380444761</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.455540232510782</v>
+        <v>0.4696733412775728</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.041953369169653</v>
+        <v>-2.721250851450146</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.680936124730994</v>
+        <v>-4.441085122241142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.27836804388041</v>
+        <v>5.803485469432972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.709815721307024</v>
+        <v>1.386047902689789</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.079719941242521</v>
+        <v>-4.253840094301517</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.31192430319763</v>
+        <v>8.625202948532193</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9632699403206568</v>
+        <v>0.8177084361391328</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.130456517335025</v>
+        <v>-3.078057927122447</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>9.283647867783932</v>
+        <v>8.95815959939768</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.866661468572118</v>
+        <v>4.521813924903671</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.855186715427801</v>
+        <v>2.25303999131083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.94429467451172</v>
+        <v>13.76848495846451</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.595877491367297</v>
+        <v>10.09323658505075</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.749413724255465</v>
+        <v>3.852586921254519</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.89601511999811</v>
+        <v>15.3684034190872</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.508018670281772</v>
+        <v>6.254041262633341</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.295533714658162</v>
+        <v>2.231075602267099</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.41005819655933</v>
+        <v>14.14598670459876</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.01728722440612038</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.5045586476298083</v>
+        <v>0.504558647629808</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1524805049715509</v>
+        <v>-0.138344353134834</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.235999796990222</v>
+        <v>-0.225775054542822</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3147418019640212</v>
+        <v>0.2940308281146097</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.05617146308057235</v>
+        <v>0.04651709160444564</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1353797744562488</v>
+        <v>-0.1446194166460199</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2811280509545799</v>
+        <v>0.2907262171196452</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03926099435002665</v>
+        <v>0.0308836567325636</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1277884256848831</v>
+        <v>-0.1299281158554718</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3825010618213679</v>
+        <v>0.3748948518349016</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2290927946314006</v>
+        <v>0.2735402577837039</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.108495396073465</v>
+        <v>0.1362511767820738</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.847131325041138</v>
+        <v>0.8206174497168963</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3663124472121552</v>
+        <v>0.3965953645661018</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.142856389819442</v>
+        <v>0.1505825496400515</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.622759363957427</v>
+        <v>0.6055410345385019</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3010644331658861</v>
+        <v>0.2884894943738254</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1051601197777956</v>
+        <v>0.1031356037019721</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6838282869599794</v>
+        <v>0.6620641474518387</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.871354549360091</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.930393578551381</v>
+        <v>6.930393578551386</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.619352966028286</v>
@@ -1092,7 +1092,7 @@
         <v>-0.2718321072650215</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>8.170062862166452</v>
+        <v>8.170062862166464</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.180089579242578</v>
+        <v>1.316693632815897</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.204757647147979</v>
+        <v>-2.170464270295099</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.283092455269575</v>
+        <v>5.221116849212379</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.310777039477605</v>
+        <v>-2.272977447461927</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.131084724418824</v>
+        <v>-5.796196615887029</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.053183292524723</v>
+        <v>3.148189499938616</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8383106603431142</v>
+        <v>0.8684717998135973</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.818477630455853</v>
+        <v>-2.929363267740284</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.677118156894348</v>
+        <v>5.649182866397329</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.212994071382601</v>
+        <v>8.281885259517029</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.302328740240388</v>
+        <v>4.043330788347023</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.9049151749529</v>
+        <v>12.02200605339991</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.750773012671454</v>
+        <v>6.069483608959604</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.095039436554478</v>
+        <v>2.62661769090695</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.31654148708372</v>
+        <v>10.70410147684948</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.22051192791258</v>
+        <v>6.392257561158924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.44251467715622</v>
+        <v>2.707540280740373</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.74184013779459</v>
+        <v>10.78340259995006</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.07000047956637877</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2592404919998933</v>
+        <v>0.2592404919998935</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1805907219967634</v>
@@ -1197,7 +1197,7 @@
         <v>-0.01356329625036859</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4076522972161682</v>
+        <v>0.4076522972161688</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07587660686425136</v>
+        <v>0.08792981028003863</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1432125516520428</v>
+        <v>-0.1381949693757643</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.335531410865707</v>
+        <v>0.3288078649926593</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.07972652743078759</v>
+        <v>-0.07942779151907747</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2153855818853735</v>
+        <v>-0.1990159790460626</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1052514408886831</v>
+        <v>0.1064422569437169</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04068873442919894</v>
+        <v>0.03904216369286979</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1350021149754613</v>
+        <v>-0.1371217622260381</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2629907883223814</v>
+        <v>0.2692203994418652</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6324409844401963</v>
+        <v>0.6413981887613718</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3393801208728976</v>
+        <v>0.3255669108348306</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9361591473879414</v>
+        <v>0.9576532955926037</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2376537109040729</v>
+        <v>0.236972545487567</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08414631404892606</v>
+        <v>0.1062170283912395</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4213743991085255</v>
+        <v>0.4342850299992405</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3350605097173409</v>
+        <v>0.3457680927244232</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1281765676244126</v>
+        <v>0.1391730491687686</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5704088276969713</v>
+        <v>0.5826655935636991</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.885108371628824</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8.420918833029422</v>
+        <v>8.420918833029425</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.027424264969749</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.406146824419287</v>
+        <v>-3.044465134850335</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.655072274005344</v>
+        <v>-2.713555255176982</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.858623657520671</v>
+        <v>4.138803365135058</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.079155241106023</v>
+        <v>-0.4845593086232219</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.610613536037284</v>
+        <v>-2.431669949036829</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.86325691051832</v>
+        <v>6.177539534321584</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2318870183974443</v>
+        <v>0.2336270772511455</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8984137725210622</v>
+        <v>-0.8856247229414052</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.019155533856441</v>
+        <v>6.963684282824461</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.072867257170564</v>
+        <v>6.227237063840739</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.742618262352021</v>
+        <v>6.696973181656935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.4472056579425</v>
+        <v>12.8026252595564</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.36431659757196</v>
+        <v>10.91030173720891</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.645632334202039</v>
+        <v>9.271120406187663</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.22740863846301</v>
+        <v>16.1933443504465</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.487346515369699</v>
+        <v>7.459708249508592</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.179051908499754</v>
+        <v>6.326794454801147</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.43664602438334</v>
+        <v>13.468312130418</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1398865497756719</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6248835871837106</v>
+        <v>0.6248835871837108</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.276864575329322</v>
@@ -1402,7 +1402,7 @@
         <v>0.1802223239985415</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6434545626579493</v>
+        <v>0.643454562657949</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2322560585049928</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1545606633342436</v>
+        <v>-0.1942360216427801</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1696279333202868</v>
+        <v>-0.1814918671301612</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2266918093081042</v>
+        <v>0.239298933615859</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05852774633799655</v>
+        <v>-0.03555626687729858</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.120797248937886</v>
+        <v>-0.1117118408657766</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3092408235419903</v>
+        <v>0.2662127889883597</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01653344052761373</v>
+        <v>0.01107925279435715</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05021582468185656</v>
+        <v>-0.04836057580614105</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4037694815477376</v>
+        <v>0.3820402171402967</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6214146477689935</v>
+        <v>0.5745335126196899</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6176315672734323</v>
+        <v>0.6034650747962835</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.137137430360484</v>
+        <v>1.138892474322277</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7458860416118749</v>
+        <v>0.695041312197672</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5718374655524038</v>
+        <v>0.5933580354072127</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.081639503975251</v>
+        <v>1.085311461107004</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5404151603358054</v>
+        <v>0.5527263720420221</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4500821111491716</v>
+        <v>0.4993315129300099</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.014688542310322</v>
+        <v>1.015737887792217</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.490966150488234</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8.476404015850299</v>
+        <v>8.476404015850306</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.167101231586821</v>
@@ -1511,7 +1511,7 @@
         <v>-0.2070697198162774</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.174074072201499</v>
+        <v>8.174074072201492</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.528245194075595</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.9912690890568032</v>
+        <v>-1.268863087558394</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.331956197241852</v>
+        <v>-1.49018337689801</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.459271249922738</v>
+        <v>6.48673778108744</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03381835311624709</v>
+        <v>0.07889315056640478</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.494839634989811</v>
+        <v>-2.504941177234217</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.086134797643623</v>
+        <v>6.027652250056008</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.02456686832903128</v>
+        <v>0.05022239481842791</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.351474166216483</v>
+        <v>-1.451329845953983</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.923603031088731</v>
+        <v>6.975530623657372</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.732513383602226</v>
+        <v>2.691818022383766</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.321688366058551</v>
+        <v>2.34326679709005</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.44863175234332</v>
+        <v>10.47483808354757</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.472101601324633</v>
+        <v>4.416963478978837</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.246859364815278</v>
+        <v>1.996164834396031</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.24062711180467</v>
+        <v>10.24714907757335</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.081805625791999</v>
+        <v>2.99623940186131</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.668497743370605</v>
+        <v>1.677801891308574</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.860987611857496</v>
+        <v>9.84451608374286</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.02725884700913528</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4706169662122572</v>
+        <v>0.4706169662122575</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.07478297014106582</v>
@@ -1616,7 +1616,7 @@
         <v>-0.007145623124767787</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2820733652690073</v>
+        <v>0.2820733652690071</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.06485127037241047</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05142826874802404</v>
+        <v>-0.06751684413912601</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07095024245813851</v>
+        <v>-0.07794150375502297</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3359257703923655</v>
+        <v>0.3430960677384394</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.001857532560882569</v>
+        <v>0.004942887511341582</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.08320148522094377</v>
+        <v>-0.08389567642164135</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2021860102389966</v>
+        <v>0.1984394885938818</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.001243552830332677</v>
+        <v>0.002414780905207334</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.05542143067096151</v>
+        <v>-0.05839740987804143</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2827734446650853</v>
+        <v>0.2866455570632108</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1607207912822735</v>
+        <v>0.1574988529300512</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1350900941636063</v>
+        <v>0.1346208255992743</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6061547709611689</v>
+        <v>0.616482692550428</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1586914682756804</v>
+        <v>0.1602714061074305</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.08163062176171551</v>
+        <v>0.07208041340242761</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3688850404945149</v>
+        <v>0.368532569317814</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1349589504897917</v>
+        <v>0.1340891154406156</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0724208848536734</v>
+        <v>0.07451294094007037</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4348637813801723</v>
+        <v>0.4297451876820788</v>
       </c>
     </row>
     <row r="34">
